--- a/Iran-North Khorasan.xlsx
+++ b/Iran-North Khorasan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDCF6DF-2CAB-4863-B71B-C2D2AA4ADCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141DC68-B1A9-45A4-8A51-0B4FC3682807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TakhtAfra" sheetId="1" r:id="rId1"/>
@@ -3434,47 +3434,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3500,29 +3461,47 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3537,6 +3516,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="22" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3554,6 +3536,27 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,17 +3569,29 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3587,23 +3602,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3962,300 +3962,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="130" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="132" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="134" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="134" t="s">
+      <c r="A5" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
     </row>
     <row r="7" spans="1:30" ht="21.75" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="119"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
     </row>
     <row r="10" spans="1:30" s="34" customFormat="1" ht="84.75" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -4264,76 +4264,76 @@
       <c r="B10" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="114" t="s">
         <v>270</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="114" t="s">
         <v>274</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="170" t="s">
+      <c r="I10" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="J10" s="170" t="s">
+      <c r="J10" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="K10" s="170" t="s">
+      <c r="K10" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="170" t="s">
+      <c r="L10" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="M10" s="170" t="s">
+      <c r="M10" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="N10" s="170" t="s">
+      <c r="N10" s="114" t="s">
         <v>279</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="170" t="s">
+      <c r="P10" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="Q10" s="170" t="s">
+      <c r="Q10" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="R10" s="170" t="s">
+      <c r="R10" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="S10" s="170" t="s">
+      <c r="S10" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="T10" s="170" t="s">
+      <c r="T10" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="U10" s="170" t="s">
+      <c r="U10" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="V10" s="170" t="s">
+      <c r="V10" s="114" t="s">
         <v>287</v>
       </c>
-      <c r="W10" s="170" t="s">
+      <c r="W10" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="X10" s="170" t="s">
+      <c r="X10" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="Y10" s="170" t="s">
+      <c r="Y10" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="Z10" s="170" t="s">
+      <c r="Z10" s="114" t="s">
         <v>290</v>
       </c>
       <c r="AA10" s="4" t="s">
@@ -10114,40 +10114,40 @@
       <c r="B75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="124"/>
-      <c r="E75" s="123" t="s">
+      <c r="D75" s="126"/>
+      <c r="E75" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="123" t="s">
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="L75" s="125"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125"/>
-      <c r="Q75" s="125"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
-      <c r="U75" s="125"/>
-      <c r="V75" s="125"/>
-      <c r="W75" s="124"/>
-      <c r="X75" s="123" t="s">
+      <c r="L75" s="127"/>
+      <c r="M75" s="127"/>
+      <c r="N75" s="127"/>
+      <c r="O75" s="127"/>
+      <c r="P75" s="127"/>
+      <c r="Q75" s="127"/>
+      <c r="R75" s="127"/>
+      <c r="S75" s="127"/>
+      <c r="T75" s="127"/>
+      <c r="U75" s="127"/>
+      <c r="V75" s="127"/>
+      <c r="W75" s="126"/>
+      <c r="X75" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="Y75" s="125"/>
-      <c r="Z75" s="125"/>
-      <c r="AA75" s="126"/>
-      <c r="AB75" s="127"/>
+      <c r="Y75" s="127"/>
+      <c r="Z75" s="127"/>
+      <c r="AA75" s="128"/>
+      <c r="AB75" s="129"/>
       <c r="AC75" s="37"/>
       <c r="AD75" s="38"/>
     </row>
@@ -10334,66 +10334,66 @@
       </c>
     </row>
     <row r="78" spans="1:31" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="B78" s="120" t="s">
+      <c r="B78" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="120"/>
-      <c r="S78" s="120"/>
-      <c r="T78" s="120"/>
-      <c r="U78" s="120"/>
-      <c r="V78" s="120"/>
-      <c r="W78" s="120"/>
-      <c r="X78" s="120"/>
-      <c r="Y78" s="120"/>
-      <c r="Z78" s="120"/>
-      <c r="AA78" s="120"/>
-      <c r="AB78" s="120"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
+      <c r="K78" s="134"/>
+      <c r="L78" s="134"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="134"/>
+      <c r="Q78" s="134"/>
+      <c r="R78" s="134"/>
+      <c r="S78" s="134"/>
+      <c r="T78" s="134"/>
+      <c r="U78" s="134"/>
+      <c r="V78" s="134"/>
+      <c r="W78" s="134"/>
+      <c r="X78" s="134"/>
+      <c r="Y78" s="134"/>
+      <c r="Z78" s="134"/>
+      <c r="AA78" s="134"/>
+      <c r="AB78" s="134"/>
     </row>
     <row r="79" spans="1:31" ht="12" customHeight="1" thickBot="1">
-      <c r="B79" s="114" t="s">
+      <c r="B79" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="115"/>
-      <c r="T79" s="115"/>
-      <c r="U79" s="115"/>
-      <c r="V79" s="115"/>
-      <c r="W79" s="115"/>
-      <c r="X79" s="115"/>
-      <c r="Y79" s="115"/>
-      <c r="Z79" s="115"/>
-      <c r="AA79" s="115"/>
-      <c r="AB79" s="116"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="131"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="131"/>
+      <c r="Q79" s="131"/>
+      <c r="R79" s="131"/>
+      <c r="S79" s="131"/>
+      <c r="T79" s="131"/>
+      <c r="U79" s="131"/>
+      <c r="V79" s="131"/>
+      <c r="W79" s="131"/>
+      <c r="X79" s="131"/>
+      <c r="Y79" s="131"/>
+      <c r="Z79" s="131"/>
+      <c r="AA79" s="131"/>
+      <c r="AB79" s="132"/>
       <c r="AC79" s="8" t="s">
         <v>90</v>
       </c>
@@ -16182,6 +16182,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B79:AB79"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="A9:AB9"/>
+    <mergeCell ref="B78:AB78"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:W75"/>
+    <mergeCell ref="X75:AB75"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="H2:AB2"/>
     <mergeCell ref="H3:AB3"/>
@@ -16191,16 +16201,6 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:W75"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="B79:AB79"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="A9:AB9"/>
-    <mergeCell ref="B78:AB78"/>
-    <mergeCell ref="A7:AB7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16233,309 +16233,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="11.5">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
     </row>
     <row r="2" spans="1:31" ht="11.5">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
     </row>
     <row r="3" spans="1:31" ht="11.5">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="149" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="147"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
     </row>
     <row r="4" spans="1:31" ht="11.5">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="146" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="147"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="147"/>
-      <c r="AB4" s="147"/>
-      <c r="AC4" s="147"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
     </row>
     <row r="5" spans="1:31" ht="11.5">
-      <c r="A5" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146" t="s">
+      <c r="A5" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
     </row>
     <row r="6" spans="1:31" ht="33" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
     </row>
     <row r="7" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="147"/>
+      <c r="X7" s="147"/>
+      <c r="Y7" s="147"/>
+      <c r="Z7" s="147"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="147"/>
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
     </row>
     <row r="9" spans="1:31" ht="12" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
     </row>
     <row r="10" spans="1:31" s="50" customFormat="1" ht="99.75" customHeight="1">
       <c r="A10" s="54" t="s">
@@ -22585,46 +22585,46 @@
       </c>
     </row>
     <row r="75" spans="1:33" ht="12" customHeight="1" thickBot="1">
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="137"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="136" t="s">
+      <c r="C75" s="149"/>
+      <c r="D75" s="150"/>
+      <c r="E75" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="137"/>
-      <c r="G75" s="137"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="136" t="s">
+      <c r="F75" s="149"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="150"/>
+      <c r="I75" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="J75" s="137"/>
-      <c r="K75" s="137"/>
-      <c r="L75" s="138"/>
-      <c r="M75" s="136" t="s">
+      <c r="J75" s="149"/>
+      <c r="K75" s="149"/>
+      <c r="L75" s="150"/>
+      <c r="M75" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="N75" s="137"/>
-      <c r="O75" s="137"/>
-      <c r="P75" s="137"/>
-      <c r="Q75" s="137"/>
-      <c r="R75" s="137"/>
-      <c r="S75" s="137"/>
-      <c r="T75" s="137"/>
-      <c r="U75" s="137"/>
-      <c r="V75" s="137"/>
-      <c r="W75" s="137"/>
-      <c r="X75" s="137"/>
-      <c r="Y75" s="138"/>
-      <c r="Z75" s="136" t="s">
+      <c r="N75" s="149"/>
+      <c r="O75" s="149"/>
+      <c r="P75" s="149"/>
+      <c r="Q75" s="149"/>
+      <c r="R75" s="149"/>
+      <c r="S75" s="149"/>
+      <c r="T75" s="149"/>
+      <c r="U75" s="149"/>
+      <c r="V75" s="149"/>
+      <c r="W75" s="149"/>
+      <c r="X75" s="149"/>
+      <c r="Y75" s="150"/>
+      <c r="Z75" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="AA75" s="138"/>
-      <c r="AB75" s="136" t="s">
+      <c r="AA75" s="150"/>
+      <c r="AB75" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="AC75" s="138"/>
+      <c r="AC75" s="150"/>
     </row>
     <row r="76" spans="1:33" s="65" customFormat="1" ht="12" customHeight="1">
       <c r="B76" s="65" t="s">
@@ -22813,42 +22813,42 @@
       <c r="AG77" s="70"/>
     </row>
     <row r="78" spans="1:33" ht="15" customHeight="1" thickBot="1">
-      <c r="B78" s="140" t="s">
+      <c r="B78" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
-      <c r="L78" s="141"/>
-      <c r="M78" s="141"/>
-      <c r="N78" s="141"/>
-      <c r="O78" s="141"/>
-      <c r="P78" s="141"/>
-      <c r="Q78" s="141"/>
-      <c r="R78" s="141"/>
-      <c r="S78" s="141"/>
-      <c r="T78" s="141"/>
-      <c r="U78" s="141"/>
-      <c r="V78" s="141"/>
-      <c r="W78" s="141"/>
-      <c r="X78" s="141"/>
-      <c r="Y78" s="141"/>
-      <c r="Z78" s="141"/>
-      <c r="AA78" s="141"/>
-      <c r="AB78" s="141"/>
-      <c r="AC78" s="142"/>
-      <c r="AD78" s="139" t="s">
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="152"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="152"/>
+      <c r="N78" s="152"/>
+      <c r="O78" s="152"/>
+      <c r="P78" s="152"/>
+      <c r="Q78" s="152"/>
+      <c r="R78" s="152"/>
+      <c r="S78" s="152"/>
+      <c r="T78" s="152"/>
+      <c r="U78" s="152"/>
+      <c r="V78" s="152"/>
+      <c r="W78" s="152"/>
+      <c r="X78" s="152"/>
+      <c r="Y78" s="152"/>
+      <c r="Z78" s="152"/>
+      <c r="AA78" s="152"/>
+      <c r="AB78" s="152"/>
+      <c r="AC78" s="153"/>
+      <c r="AD78" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="AE78" s="139"/>
-      <c r="AF78" s="139"/>
-      <c r="AG78" s="139"/>
+      <c r="AE78" s="142"/>
+      <c r="AF78" s="142"/>
+      <c r="AG78" s="142"/>
     </row>
     <row r="79" spans="1:33" ht="12" customHeight="1">
       <c r="A79" s="71" t="s">
@@ -28830,6 +28830,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="B78:AC78"/>
+    <mergeCell ref="M75:Y75"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="A9:AC9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="H4:AC4"/>
@@ -28843,14 +28851,6 @@
     <mergeCell ref="A6:AC6"/>
     <mergeCell ref="A7:AC7"/>
     <mergeCell ref="A8:AC8"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="B78:AC78"/>
-    <mergeCell ref="M75:Y75"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="B75:D75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -28881,255 +28881,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="149" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="146" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="147"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="A5" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
     </row>
     <row r="6" spans="1:25" ht="33" customHeight="1">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
     </row>
     <row r="7" spans="1:25" ht="21.75" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="146" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="147"/>
     </row>
     <row r="8" spans="1:25" ht="30" customHeight="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
     </row>
     <row r="9" spans="1:25" ht="20.25" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
     </row>
     <row r="10" spans="1:25" s="50" customFormat="1" ht="99.75" customHeight="1">
       <c r="A10" s="54" t="s">
@@ -34012,35 +34012,35 @@
       <c r="B75" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="154" t="s">
+      <c r="C75" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="155"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="156"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="157"/>
       <c r="G75" s="88"/>
-      <c r="H75" s="154" t="s">
+      <c r="H75" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="I75" s="155"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="154" t="s">
+      <c r="I75" s="156"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="M75" s="155"/>
-      <c r="N75" s="155"/>
-      <c r="O75" s="155"/>
-      <c r="P75" s="155"/>
-      <c r="Q75" s="155"/>
-      <c r="R75" s="155"/>
-      <c r="S75" s="155" t="s">
+      <c r="M75" s="156"/>
+      <c r="N75" s="156"/>
+      <c r="O75" s="156"/>
+      <c r="P75" s="156"/>
+      <c r="Q75" s="156"/>
+      <c r="R75" s="156"/>
+      <c r="S75" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="T75" s="155"/>
-      <c r="U75" s="155"/>
-      <c r="V75" s="155"/>
-      <c r="W75" s="156"/>
+      <c r="T75" s="156"/>
+      <c r="U75" s="156"/>
+      <c r="V75" s="156"/>
+      <c r="W75" s="157"/>
       <c r="X75" s="83"/>
     </row>
     <row r="76" spans="1:26" s="65" customFormat="1" ht="12" customHeight="1">
@@ -34192,30 +34192,30 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B78" s="140" t="s">
+      <c r="B78" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="141"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
-      <c r="L78" s="141"/>
-      <c r="M78" s="141"/>
-      <c r="N78" s="141"/>
-      <c r="O78" s="141"/>
-      <c r="P78" s="141"/>
-      <c r="Q78" s="141"/>
-      <c r="R78" s="141"/>
-      <c r="S78" s="141"/>
-      <c r="T78" s="141"/>
-      <c r="U78" s="141"/>
-      <c r="V78" s="141"/>
-      <c r="W78" s="142"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="158"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="152"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="152"/>
+      <c r="N78" s="152"/>
+      <c r="O78" s="152"/>
+      <c r="P78" s="152"/>
+      <c r="Q78" s="152"/>
+      <c r="R78" s="152"/>
+      <c r="S78" s="152"/>
+      <c r="T78" s="152"/>
+      <c r="U78" s="152"/>
+      <c r="V78" s="152"/>
+      <c r="W78" s="153"/>
       <c r="X78" s="45" t="s">
         <v>90</v>
       </c>
@@ -39030,6 +39030,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L75:R75"/>
+    <mergeCell ref="S75:W75"/>
+    <mergeCell ref="B78:W78"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:K75"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:I2"/>
@@ -39043,11 +39048,6 @@
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:W8"/>
-    <mergeCell ref="L75:R75"/>
-    <mergeCell ref="S75:W75"/>
-    <mergeCell ref="B78:W78"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:K75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39076,174 +39076,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="130" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="168">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162">
         <v>42880</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="130" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="130" t="s">
+      <c r="A5" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="165" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="1:16" s="98" customFormat="1" ht="99.75" customHeight="1">
       <c r="A10" s="46" t="s">
@@ -42369,29 +42369,29 @@
     </row>
     <row r="75" spans="1:80" ht="12" customHeight="1">
       <c r="A75" s="100"/>
-      <c r="B75" s="164" t="s">
+      <c r="B75" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="164"/>
-      <c r="D75" s="164" t="s">
+      <c r="C75" s="169"/>
+      <c r="D75" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="164"/>
-      <c r="F75" s="164"/>
-      <c r="G75" s="164" t="s">
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="H75" s="164"/>
-      <c r="I75" s="164"/>
-      <c r="J75" s="164" t="s">
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="K75" s="164"/>
-      <c r="L75" s="164" t="s">
+      <c r="K75" s="169"/>
+      <c r="L75" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="M75" s="164"/>
-      <c r="N75" s="164"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="169"/>
       <c r="O75" s="101"/>
       <c r="P75" s="100"/>
       <c r="Q75" s="102"/>
@@ -42620,21 +42620,21 @@
     </row>
     <row r="78" spans="1:80" ht="12" customHeight="1">
       <c r="A78" s="100"/>
-      <c r="B78" s="163" t="s">
+      <c r="B78" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="163"/>
-      <c r="D78" s="163"/>
-      <c r="E78" s="163"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="163"/>
-      <c r="H78" s="163"/>
-      <c r="I78" s="163"/>
-      <c r="J78" s="163"/>
-      <c r="K78" s="163"/>
-      <c r="L78" s="163"/>
-      <c r="M78" s="163"/>
-      <c r="N78" s="163"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="168"/>
+      <c r="I78" s="168"/>
+      <c r="J78" s="168"/>
+      <c r="K78" s="168"/>
+      <c r="L78" s="168"/>
+      <c r="M78" s="168"/>
+      <c r="N78" s="168"/>
       <c r="O78" s="108" t="s">
         <v>90</v>
       </c>
@@ -46144,16 +46144,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:N9"/>
@@ -46163,6 +46153,16 @@
     <mergeCell ref="G75:I75"/>
     <mergeCell ref="J75:K75"/>
     <mergeCell ref="L75:N75"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46185,21 +46185,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="170" t="s">
         <v>181</v>
       </c>
       <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="19" customFormat="1" ht="16" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
@@ -46997,15 +46997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -47151,6 +47142,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -47158,14 +47158,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15903352-0AEE-40BE-AFCC-1896BF3EEF2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6BCC8C4-E0AE-46CF-9658-AFAF1CA52081}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47183,6 +47175,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15903352-0AEE-40BE-AFCC-1896BF3EEF2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF514F56-6119-477A-B0A6-A6B5974B5C6D}">
   <ds:schemaRefs>
